--- a/大学信息技术/项目3/实训1/入库单.xlsx
+++ b/大学信息技术/项目3/实训1/入库单.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
@@ -137,8 +137,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,7 +198,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -543,36 +543,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -608,53 +578,68 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -683,31 +668,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -768,7 +738,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -803,7 +773,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -980,7 +950,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -997,7 +967,7 @@
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6.625" customWidth="1"/>
     <col min="2" max="4" width="10.625" customWidth="1"/>
@@ -1006,21 +976,21 @@
     <col min="10" max="10" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:10" ht="30" customHeight="1">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+    </row>
+    <row r="2" spans="1:10" ht="31.5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1034,23 +1004,23 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:10" s="2" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
+      <c r="A3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="E3" s="16" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="E3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="I3" s="16" t="s">
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="I3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" s="2" customFormat="1" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="J3" s="19"/>
+    </row>
+    <row r="4" spans="1:10" s="2" customFormat="1" ht="24.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1082,7 +1052,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1">
       <c r="A5" s="7">
         <v>1</v>
       </c>
@@ -1096,7 +1066,7 @@
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" spans="1:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="8">
         <v>2</v>
       </c>
@@ -1110,7 +1080,7 @@
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="8">
         <v>3</v>
       </c>
@@ -1124,7 +1094,7 @@
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="8">
         <v>4</v>
       </c>
@@ -1138,7 +1108,7 @@
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="8">
         <v>5</v>
       </c>
@@ -1152,7 +1122,7 @@
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="8">
         <v>6</v>
       </c>
@@ -1166,7 +1136,7 @@
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="8">
         <v>7</v>
       </c>
@@ -1180,7 +1150,7 @@
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="8">
         <v>8</v>
       </c>
@@ -1194,7 +1164,7 @@
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="8">
         <v>9</v>
       </c>
@@ -1208,7 +1178,7 @@
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="8">
         <v>10</v>
       </c>
@@ -1222,74 +1192,80 @@
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
     </row>
-    <row r="15" spans="1:10" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="17" t="s">
+    <row r="15" spans="1:10" s="3" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A15" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="19" t="s">
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="18"/>
-    </row>
-    <row r="16" spans="1:10" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="10" t="s">
+      <c r="J15" s="21"/>
+    </row>
+    <row r="16" spans="1:10" s="3" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A16" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="14"/>
-    </row>
-    <row r="17" spans="1:10" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="10" t="s">
+      <c r="B16" s="25"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="27"/>
+    </row>
+    <row r="17" spans="1:10" s="3" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A17" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="10" t="s">
+      <c r="B17" s="25"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="14"/>
-    </row>
-    <row r="98" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="G17" s="25"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="27"/>
+    </row>
+    <row r="98" spans="21:21">
       <c r="U98">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="99" spans="21:21">
       <c r="U99">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="100" spans="21:21">
       <c r="U100">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="21:21">
       <c r="U101">
         <v>100</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:J17"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="E3:G3"/>
@@ -1297,12 +1273,6 @@
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="D15:H15"/>
     <mergeCell ref="I15:J15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:J17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1318,10 +1288,10 @@
   <dimension ref="A1:U101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6.625" customWidth="1"/>
     <col min="2" max="4" width="10.625" customWidth="1"/>
@@ -1330,86 +1300,86 @@
     <col min="10" max="10" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:10" ht="30" customHeight="1">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-    </row>
-    <row r="2" spans="1:10" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A2" s="41" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+    </row>
+    <row r="2" spans="1:10" ht="31.5">
+      <c r="A2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-    </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="42" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+    </row>
+    <row r="3" spans="1:10" s="2" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
+      <c r="A3" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="42" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="42" t="s">
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="42"/>
-    </row>
-    <row r="4" spans="1:10" s="2" customFormat="1" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="35" t="s">
+      <c r="J3" s="40"/>
+    </row>
+    <row r="4" spans="1:10" s="2" customFormat="1" ht="24.95" customHeight="1" thickTop="1">
+      <c r="A4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="36" t="s">
+      <c r="G4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="36" t="s">
+      <c r="H4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="37" t="s">
+      <c r="J4" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="20">
+    <row r="5" spans="1:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="10">
         <v>1</v>
       </c>
       <c r="B5" s="7"/>
@@ -1420,10 +1390,10 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
-      <c r="J5" s="21"/>
-    </row>
-    <row r="6" spans="1:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="22">
+      <c r="J5" s="11"/>
+    </row>
+    <row r="6" spans="1:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="12">
         <v>2</v>
       </c>
       <c r="B6" s="8"/>
@@ -1434,10 +1404,10 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
-      <c r="J6" s="23"/>
-    </row>
-    <row r="7" spans="1:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="22">
+      <c r="J6" s="13"/>
+    </row>
+    <row r="7" spans="1:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="12">
         <v>3</v>
       </c>
       <c r="B7" s="8"/>
@@ -1448,10 +1418,10 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
-      <c r="J7" s="23"/>
-    </row>
-    <row r="8" spans="1:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="22">
+      <c r="J7" s="13"/>
+    </row>
+    <row r="8" spans="1:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="12">
         <v>4</v>
       </c>
       <c r="B8" s="8"/>
@@ -1462,10 +1432,10 @@
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
-      <c r="J8" s="23"/>
-    </row>
-    <row r="9" spans="1:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="22">
+      <c r="J8" s="13"/>
+    </row>
+    <row r="9" spans="1:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="12">
         <v>5</v>
       </c>
       <c r="B9" s="8"/>
@@ -1476,10 +1446,10 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
-      <c r="J9" s="23"/>
-    </row>
-    <row r="10" spans="1:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="22">
+      <c r="J9" s="13"/>
+    </row>
+    <row r="10" spans="1:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="12">
         <v>6</v>
       </c>
       <c r="B10" s="8"/>
@@ -1490,10 +1460,10 @@
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="23"/>
-    </row>
-    <row r="11" spans="1:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="22">
+      <c r="J10" s="13"/>
+    </row>
+    <row r="11" spans="1:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="12">
         <v>7</v>
       </c>
       <c r="B11" s="8"/>
@@ -1504,10 +1474,10 @@
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
-      <c r="J11" s="23"/>
-    </row>
-    <row r="12" spans="1:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="22">
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" spans="1:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="12">
         <v>8</v>
       </c>
       <c r="B12" s="8"/>
@@ -1518,10 +1488,10 @@
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="23"/>
-    </row>
-    <row r="13" spans="1:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="22">
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13" spans="1:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="12">
         <v>9</v>
       </c>
       <c r="B13" s="8"/>
@@ -1532,10 +1502,10 @@
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
-      <c r="J13" s="23"/>
-    </row>
-    <row r="14" spans="1:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="22">
+      <c r="J13" s="13"/>
+    </row>
+    <row r="14" spans="1:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="12">
         <v>10</v>
       </c>
       <c r="B14" s="8"/>
@@ -1546,77 +1516,83 @@
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="9"/>
-      <c r="J14" s="24"/>
-    </row>
-    <row r="15" spans="1:10" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="25" t="s">
+      <c r="J14" s="14"/>
+    </row>
+    <row r="15" spans="1:10" s="3" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A15" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="38" t="s">
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="39"/>
-    </row>
-    <row r="16" spans="1:10" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="26" t="s">
+      <c r="J15" s="30"/>
+    </row>
+    <row r="16" spans="1:10" s="3" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A16" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="27"/>
-    </row>
-    <row r="17" spans="1:10" s="3" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="28" t="s">
+      <c r="B16" s="25"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="32"/>
+    </row>
+    <row r="17" spans="1:10" s="3" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
+      <c r="A17" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="33" t="s">
+      <c r="B17" s="34"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="29"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="34"/>
-    </row>
-    <row r="18" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="98" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="G17" s="34"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="39"/>
+    </row>
+    <row r="18" spans="1:10" ht="14.25" thickTop="1"/>
+    <row r="98" spans="21:21">
       <c r="U98">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="99" spans="21:21">
       <c r="U99">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="100" spans="21:21">
       <c r="U100">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="21:21">
       <c r="U101">
         <v>100</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:J17"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="E3:G3"/>
@@ -1624,12 +1600,6 @@
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="D15:H15"/>
     <mergeCell ref="I15:J15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:J17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
